--- a/arrows.xlsx
+++ b/arrows.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NOA\Noam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NOA\Noam_cloned\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -353,7 +353,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
